--- a/1.Documents/Android Push Condition.xlsx
+++ b/1.Documents/Android Push Condition.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Button</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Message</t>
   </si>
   <si>
-    <t>Someone rang your doorbell</t>
-  </si>
-  <si>
     <t>1 lần nhấn nút (giữ)</t>
   </si>
   <si>
@@ -60,15 +57,6 @@
     <t>Delay - không push đến khi nào có chuyển động tiếp</t>
   </si>
   <si>
-    <t>Delay 10s, ko push trong 10s sau đó</t>
-  </si>
-  <si>
-    <t>Cửa đang đóng</t>
-  </si>
-  <si>
-    <t>Do nothing</t>
-  </si>
-  <si>
     <t>Cửa đóng =&gt; mở</t>
   </si>
   <si>
@@ -90,17 +78,38 @@
     <t>Ngay sau khi có chuyển động, delay 10s, hết 10s đọc giá trị hiện tại</t>
   </si>
   <si>
-    <t>Send 1 push</t>
-  </si>
-  <si>
     <t>Trigger</t>
+  </si>
+  <si>
+    <t>Trạng thái ban đầu: cửa đang đóng</t>
+  </si>
+  <si>
+    <t>Trạng thái ban đầu: cửa đang mở</t>
+  </si>
+  <si>
+    <t>Push 1 lần duy nhất khi system khởi động (hoặc lúc Active trở lại Door Switch trong Setting)</t>
+  </si>
+  <si>
+    <t>The door is open</t>
+  </si>
+  <si>
+    <t>The door is close</t>
+  </si>
+  <si>
+    <t>Someone has pressed doorbell</t>
+  </si>
+  <si>
+    <t>Push</t>
+  </si>
+  <si>
+    <t>Delay 10s, ko push trong 10s sau đó. Hết 10s đọc lại giá trị hiện tại</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,8 +125,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -227,37 +243,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -561,105 +577,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="51.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4"/>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7"/>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4"/>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7"/>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -667,58 +685,79 @@
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="8" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>22</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
